--- a/data/获取数据/政策导向指标/非国企20年数据/601061.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/601061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="166">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>中信金属</t>
   </si>
   <si>
-    <t>601061</t>
-  </si>
-  <si>
     <t>2023-04-10</t>
   </si>
   <si>
@@ -476,6 +500,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>中国中信集团有限公司</t>
+  </si>
+  <si>
+    <t>中信盛星有限公司;中信盛荣有限公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -833,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,16 +915,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>601061</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>8.74</v>
@@ -921,3521 +984,3509 @@
         <v>62.04</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>601061</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3">
+        <v>439885</v>
+      </c>
+      <c r="S3">
+        <v>89.77</v>
+      </c>
+      <c r="T3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3">
+        <v>66.51490500930069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>601061</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>9.859999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>9.99</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>10.45</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>9.59</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1638036</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1657539432</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7.75</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-9.92</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-1.1</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>33.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>601061</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>9.93</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>10.13</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>10.57</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>9.640000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>1197073</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>1236362002</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>9.31</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.4</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.14</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>24.63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>601061</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>9.84</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>10.27</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>9.67</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>1116106</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1118615773</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5.92</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-2.86</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-0.29</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>22.96</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>601061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>9.75</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>9.119999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>9.75</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>9.09</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>1138348</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1081622788</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>6.71</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-7.32</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-0.72</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>23.42</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>601061</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>9.02</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>8.91</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>9.119999999999999</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>8.77</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>710959</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>643275527</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3.84</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-2.3</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-0.21</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>14.63</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>601061</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>8.869999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>8.77</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>9.02</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>8.76</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>540227</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>486418476</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>2.92</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-1.57</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-0.14</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>11.11</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>601061</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>8.74</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>8.85</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>8.9</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>8.74</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>478287</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>429378986</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1.82</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.91</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.08</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>9.84</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>601061</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>8.84</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>8.41</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>8.84</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>8.4</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>679987</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>589222360</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>4.97</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-4.97</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.44</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>13.99</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>601061</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>8.35</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>7.94</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>8.449999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>7.93</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>657459</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>544861076</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>6.18</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-5.59</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-0.47</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>13.52</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>601061</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>7.91</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>7.84</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>7.81</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>355922</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>285817215</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2.39</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.26</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-0.1</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>7.32</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>601061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>7.84</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>7.64</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>7.89</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>7.51</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>408984</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>318177183</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>4.85</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-2.55</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-0.2</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>8.41</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>601061</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>7.58</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>7.85</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>7.9</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>7.56</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>392909</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>310294180</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>4.45</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>2.75</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.21</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>601061</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>7.82</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>7.75</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>7.87</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>7.7</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>275784</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>218500103</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2.17</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-1.27</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>-0.1</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>5.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>7.75</v>
-      </c>
-      <c r="E16">
-        <v>7.87</v>
-      </c>
-      <c r="F16">
-        <v>7.88</v>
-      </c>
-      <c r="G16">
-        <v>7.74</v>
-      </c>
-      <c r="H16">
-        <v>262539</v>
-      </c>
-      <c r="I16">
-        <v>209414335</v>
-      </c>
-      <c r="J16">
-        <v>1.81</v>
-      </c>
-      <c r="K16">
-        <v>1.55</v>
-      </c>
-      <c r="L16">
-        <v>0.12</v>
-      </c>
-      <c r="M16">
-        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>601061</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="E17">
-        <v>8.16</v>
+        <v>7.87</v>
       </c>
       <c r="F17">
-        <v>8.16</v>
+        <v>7.88</v>
       </c>
       <c r="G17">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="H17">
-        <v>409706</v>
+        <v>262539</v>
       </c>
       <c r="I17">
-        <v>335921700</v>
+        <v>209414335</v>
       </c>
       <c r="J17">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="K17">
-        <v>3.68</v>
+        <v>1.55</v>
       </c>
       <c r="L17">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="M17">
-        <v>8.43</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>601061</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>8.199999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="E18">
-        <v>8.67</v>
+        <v>8.16</v>
       </c>
       <c r="F18">
-        <v>8.67</v>
+        <v>8.16</v>
       </c>
       <c r="G18">
-        <v>8.119999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="H18">
-        <v>798646</v>
+        <v>409706</v>
       </c>
       <c r="I18">
-        <v>688716236</v>
+        <v>335921700</v>
       </c>
       <c r="J18">
-        <v>6.74</v>
+        <v>4.19</v>
       </c>
       <c r="K18">
-        <v>6.25</v>
+        <v>3.68</v>
       </c>
       <c r="L18">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="M18">
-        <v>16.43</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>601061</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>8.83</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E19">
-        <v>9.550000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="F19">
-        <v>9.550000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="G19">
-        <v>8.83</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H19">
-        <v>1647182</v>
+        <v>798646</v>
       </c>
       <c r="I19">
-        <v>1564552529</v>
+        <v>688716236</v>
       </c>
       <c r="J19">
-        <v>8.300000000000001</v>
+        <v>6.74</v>
       </c>
       <c r="K19">
-        <v>10.15</v>
+        <v>6.25</v>
       </c>
       <c r="L19">
-        <v>0.88</v>
+        <v>0.51</v>
       </c>
       <c r="M19">
-        <v>33.88</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>601061</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>10.05</v>
+        <v>8.83</v>
       </c>
       <c r="E20">
-        <v>10.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F20">
-        <v>10.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G20">
-        <v>10.04</v>
+        <v>8.83</v>
       </c>
       <c r="H20">
-        <v>1226595</v>
+        <v>1647182</v>
       </c>
       <c r="I20">
-        <v>1300123784</v>
+        <v>1564552529</v>
       </c>
       <c r="J20">
-        <v>5.03</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K20">
-        <v>10.16</v>
+        <v>10.15</v>
       </c>
       <c r="L20">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="M20">
-        <v>25.23</v>
+        <v>33.88</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>601061</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>10.55</v>
+        <v>10.05</v>
       </c>
       <c r="E21">
-        <v>10.9</v>
+        <v>10.52</v>
       </c>
       <c r="F21">
-        <v>11.54</v>
+        <v>10.52</v>
       </c>
       <c r="G21">
-        <v>9.449999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="H21">
-        <v>2466764</v>
+        <v>1226595</v>
       </c>
       <c r="I21">
-        <v>2547908764</v>
+        <v>1300123784</v>
       </c>
       <c r="J21">
-        <v>19.87</v>
+        <v>5.03</v>
       </c>
       <c r="K21">
-        <v>3.61</v>
+        <v>10.16</v>
       </c>
       <c r="L21">
-        <v>0.38</v>
+        <v>0.97</v>
       </c>
       <c r="M21">
-        <v>50.74</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>601061</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>10.35</v>
+        <v>10.55</v>
       </c>
       <c r="E22">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="F22">
-        <v>10.51</v>
+        <v>11.54</v>
       </c>
       <c r="G22">
-        <v>9.800000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H22">
-        <v>1355844</v>
+        <v>2466764</v>
       </c>
       <c r="I22">
-        <v>1380329983</v>
+        <v>2547908764</v>
       </c>
       <c r="J22">
-        <v>6.51</v>
+        <v>19.87</v>
       </c>
       <c r="K22">
-        <v>-10.09</v>
+        <v>3.61</v>
       </c>
       <c r="L22">
-        <v>-1.1</v>
+        <v>0.38</v>
       </c>
       <c r="M22">
-        <v>27.89</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>601061</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>9.359999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="E23">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>10.51</v>
       </c>
       <c r="G23">
-        <v>9.210000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23">
-        <v>951390</v>
+        <v>1355844</v>
       </c>
       <c r="I23">
-        <v>930920274</v>
+        <v>1380329983</v>
       </c>
       <c r="J23">
-        <v>8.06</v>
+        <v>6.51</v>
       </c>
       <c r="K23">
-        <v>-3.06</v>
+        <v>-10.09</v>
       </c>
       <c r="L23">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="M23">
-        <v>19.57</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>601061</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>9.529999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E24">
-        <v>10.47</v>
+        <v>9.5</v>
       </c>
       <c r="F24">
-        <v>10.47</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>9.529999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H24">
-        <v>1468246</v>
+        <v>951390</v>
       </c>
       <c r="I24">
-        <v>1499635072</v>
+        <v>930920274</v>
       </c>
       <c r="J24">
-        <v>9.890000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="K24">
-        <v>10.21</v>
+        <v>-3.06</v>
       </c>
       <c r="L24">
-        <v>0.97</v>
+        <v>-0.3</v>
       </c>
       <c r="M24">
-        <v>30.2</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>601061</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>10.63</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E25">
-        <v>10.34</v>
+        <v>10.47</v>
       </c>
       <c r="F25">
-        <v>10.88</v>
+        <v>10.47</v>
       </c>
       <c r="G25">
-        <v>9.960000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="H25">
-        <v>1556675</v>
+        <v>1468246</v>
       </c>
       <c r="I25">
-        <v>1644617378</v>
+        <v>1499635072</v>
       </c>
       <c r="J25">
-        <v>8.789999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K25">
-        <v>-1.24</v>
+        <v>10.21</v>
       </c>
       <c r="L25">
-        <v>-0.13</v>
+        <v>0.97</v>
       </c>
       <c r="M25">
-        <v>32.02</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>601061</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>10.06</v>
+        <v>10.63</v>
       </c>
       <c r="E26">
-        <v>10.51</v>
+        <v>10.34</v>
       </c>
       <c r="F26">
-        <v>10.65</v>
+        <v>10.88</v>
       </c>
       <c r="G26">
-        <v>10.06</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H26">
-        <v>1131169</v>
+        <v>1556675</v>
       </c>
       <c r="I26">
-        <v>1195419399</v>
+        <v>1644617378</v>
       </c>
       <c r="J26">
-        <v>5.71</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K26">
-        <v>1.64</v>
+        <v>-1.24</v>
       </c>
       <c r="L26">
-        <v>0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="M26">
-        <v>23.27</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>601061</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
+        <v>10.06</v>
+      </c>
+      <c r="E27">
         <v>10.51</v>
       </c>
-      <c r="E27">
-        <v>10.38</v>
-      </c>
       <c r="F27">
-        <v>10.67</v>
+        <v>10.65</v>
       </c>
       <c r="G27">
-        <v>10.05</v>
+        <v>10.06</v>
       </c>
       <c r="H27">
-        <v>1183339</v>
+        <v>1131169</v>
       </c>
       <c r="I27">
-        <v>1241144015</v>
+        <v>1195419399</v>
       </c>
       <c r="J27">
-        <v>5.9</v>
+        <v>5.71</v>
       </c>
       <c r="K27">
-        <v>-1.24</v>
+        <v>1.64</v>
       </c>
       <c r="L27">
-        <v>-0.13</v>
+        <v>0.17</v>
       </c>
       <c r="M27">
-        <v>24.34</v>
+        <v>23.27</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>601061</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>10.13</v>
+        <v>10.51</v>
       </c>
       <c r="E28">
-        <v>9.84</v>
+        <v>10.38</v>
       </c>
       <c r="F28">
-        <v>10.14</v>
+        <v>10.67</v>
       </c>
       <c r="G28">
-        <v>9.369999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="H28">
-        <v>1017010</v>
+        <v>1183339</v>
       </c>
       <c r="I28">
-        <v>1011472692</v>
+        <v>1241144015</v>
       </c>
       <c r="J28">
-        <v>7.42</v>
+        <v>5.9</v>
       </c>
       <c r="K28">
-        <v>-5.2</v>
+        <v>-1.24</v>
       </c>
       <c r="L28">
-        <v>-0.54</v>
+        <v>-0.13</v>
       </c>
       <c r="M28">
-        <v>20.92</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>601061</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>9.76</v>
+        <v>10.13</v>
       </c>
       <c r="E29">
-        <v>9.800000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="F29">
-        <v>9.99</v>
+        <v>10.14</v>
       </c>
       <c r="G29">
-        <v>9.68</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H29">
-        <v>647582</v>
+        <v>1017010</v>
       </c>
       <c r="I29">
-        <v>645756349</v>
+        <v>1011472692</v>
       </c>
       <c r="J29">
-        <v>3.15</v>
+        <v>7.42</v>
       </c>
       <c r="K29">
-        <v>-0.41</v>
+        <v>-5.2</v>
       </c>
       <c r="L29">
-        <v>-0.04</v>
+        <v>-0.54</v>
       </c>
       <c r="M29">
-        <v>13.32</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>601061</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>9.83</v>
+        <v>9.76</v>
       </c>
       <c r="E30">
-        <v>9.380000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F30">
-        <v>9.869999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="G30">
-        <v>9.380000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="H30">
-        <v>637977</v>
+        <v>647582</v>
       </c>
       <c r="I30">
-        <v>619370089</v>
+        <v>645756349</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K30">
-        <v>-4.29</v>
+        <v>-0.41</v>
       </c>
       <c r="L30">
-        <v>-0.42</v>
+        <v>-0.04</v>
       </c>
       <c r="M30">
-        <v>13.12</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>601061</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>9.51</v>
+        <v>9.83</v>
       </c>
       <c r="E31">
-        <v>9.24</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F31">
-        <v>9.52</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G31">
-        <v>9.23</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H31">
-        <v>486895</v>
+        <v>637977</v>
       </c>
       <c r="I31">
-        <v>463534380</v>
+        <v>619370089</v>
       </c>
       <c r="J31">
-        <v>3.09</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>-1.49</v>
+        <v>-4.29</v>
       </c>
       <c r="L31">
-        <v>-0.14</v>
+        <v>-0.42</v>
       </c>
       <c r="M31">
-        <v>10.02</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>601061</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>9.210000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="E32">
-        <v>9.15</v>
+        <v>9.24</v>
       </c>
       <c r="F32">
-        <v>9.33</v>
+        <v>9.52</v>
       </c>
       <c r="G32">
-        <v>8.9</v>
+        <v>9.23</v>
       </c>
       <c r="H32">
-        <v>570587</v>
+        <v>486895</v>
       </c>
       <c r="I32">
-        <v>528798480</v>
+        <v>463534380</v>
       </c>
       <c r="J32">
-        <v>4.65</v>
+        <v>3.09</v>
       </c>
       <c r="K32">
-        <v>-0.97</v>
+        <v>-1.49</v>
       </c>
       <c r="L32">
-        <v>-0.09</v>
+        <v>-0.14</v>
       </c>
       <c r="M32">
-        <v>11.74</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>601061</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E33">
         <v>9.15</v>
       </c>
-      <c r="E33">
-        <v>9.16</v>
-      </c>
       <c r="F33">
-        <v>9.220000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="G33">
-        <v>8.949999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H33">
-        <v>436119</v>
+        <v>570587</v>
       </c>
       <c r="I33">
-        <v>402667218</v>
+        <v>528798480</v>
       </c>
       <c r="J33">
-        <v>2.95</v>
+        <v>4.65</v>
       </c>
       <c r="K33">
-        <v>0.11</v>
+        <v>-0.97</v>
       </c>
       <c r="L33">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="M33">
-        <v>8.970000000000001</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>601061</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>9.18</v>
+        <v>9.15</v>
       </c>
       <c r="E34">
-        <v>9.43</v>
+        <v>9.16</v>
       </c>
       <c r="F34">
-        <v>9.539999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H34">
-        <v>782369</v>
+        <v>436119</v>
       </c>
       <c r="I34">
-        <v>739389638</v>
+        <v>402667218</v>
       </c>
       <c r="J34">
-        <v>5.9</v>
+        <v>2.95</v>
       </c>
       <c r="K34">
-        <v>2.95</v>
+        <v>0.11</v>
       </c>
       <c r="L34">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="M34">
-        <v>16.09</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>601061</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>9.300000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="E35">
-        <v>9.470000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="F35">
-        <v>9.609999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G35">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>701984</v>
+        <v>782369</v>
       </c>
       <c r="I35">
-        <v>670723749</v>
+        <v>739389638</v>
       </c>
       <c r="J35">
-        <v>4.35</v>
+        <v>5.9</v>
       </c>
       <c r="K35">
-        <v>0.42</v>
+        <v>2.95</v>
       </c>
       <c r="L35">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="M35">
-        <v>14.44</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>601061</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>9.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E36">
-        <v>9.02</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F36">
-        <v>9.44</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G36">
-        <v>9.02</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H36">
-        <v>616768</v>
+        <v>701984</v>
       </c>
       <c r="I36">
-        <v>576827272</v>
+        <v>670723749</v>
       </c>
       <c r="J36">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="K36">
-        <v>-4.75</v>
+        <v>0.42</v>
       </c>
       <c r="L36">
-        <v>-0.45</v>
+        <v>0.04</v>
       </c>
       <c r="M36">
-        <v>12.69</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>601061</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>8.94</v>
+        <v>9.35</v>
       </c>
       <c r="E37">
-        <v>8.98</v>
+        <v>9.02</v>
       </c>
       <c r="F37">
-        <v>9.19</v>
+        <v>9.44</v>
       </c>
       <c r="G37">
-        <v>8.720000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="H37">
-        <v>477520</v>
+        <v>616768</v>
       </c>
       <c r="I37">
-        <v>435178893</v>
+        <v>576827272</v>
       </c>
       <c r="J37">
-        <v>5.21</v>
+        <v>4.44</v>
       </c>
       <c r="K37">
-        <v>-0.44</v>
+        <v>-4.75</v>
       </c>
       <c r="L37">
-        <v>-0.04</v>
+        <v>-0.45</v>
       </c>
       <c r="M37">
-        <v>9.82</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>601061</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>9.029999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="E38">
-        <v>9.6</v>
+        <v>8.98</v>
       </c>
       <c r="F38">
-        <v>9.6</v>
+        <v>9.19</v>
       </c>
       <c r="G38">
-        <v>8.98</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H38">
-        <v>894742</v>
+        <v>477520</v>
       </c>
       <c r="I38">
-        <v>855796769</v>
+        <v>435178893</v>
       </c>
       <c r="J38">
-        <v>6.9</v>
+        <v>5.21</v>
       </c>
       <c r="K38">
-        <v>6.9</v>
+        <v>-0.44</v>
       </c>
       <c r="L38">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
       <c r="M38">
-        <v>18.41</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>601061</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>9.609999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E39">
-        <v>9.43</v>
+        <v>9.6</v>
       </c>
       <c r="F39">
-        <v>9.68</v>
+        <v>9.6</v>
       </c>
       <c r="G39">
-        <v>9.359999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="H39">
-        <v>501964</v>
+        <v>894742</v>
       </c>
       <c r="I39">
-        <v>481276036</v>
+        <v>855796769</v>
       </c>
       <c r="J39">
-        <v>3.33</v>
+        <v>6.9</v>
       </c>
       <c r="K39">
-        <v>-1.77</v>
+        <v>6.9</v>
       </c>
       <c r="L39">
-        <v>-0.17</v>
+        <v>0.62</v>
       </c>
       <c r="M39">
-        <v>10.33</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>601061</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>9.41</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E40">
-        <v>9.24</v>
+        <v>9.43</v>
       </c>
       <c r="F40">
-        <v>9.59</v>
+        <v>9.68</v>
       </c>
       <c r="G40">
-        <v>9.17</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H40">
-        <v>490410</v>
+        <v>501964</v>
       </c>
       <c r="I40">
-        <v>465497226</v>
+        <v>481276036</v>
       </c>
       <c r="J40">
-        <v>4.45</v>
+        <v>3.33</v>
       </c>
       <c r="K40">
-        <v>-2.01</v>
+        <v>-1.77</v>
       </c>
       <c r="L40">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="M40">
-        <v>10.09</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>601061</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>9.15</v>
+        <v>9.41</v>
       </c>
       <c r="E41">
-        <v>9.199999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="F41">
-        <v>9.300000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="G41">
-        <v>9.09</v>
+        <v>9.17</v>
       </c>
       <c r="H41">
-        <v>302230</v>
+        <v>490410</v>
       </c>
       <c r="I41">
-        <v>281665500</v>
+        <v>465497226</v>
       </c>
       <c r="J41">
-        <v>2.27</v>
+        <v>4.45</v>
       </c>
       <c r="K41">
-        <v>-0.43</v>
+        <v>-2.01</v>
       </c>
       <c r="L41">
-        <v>-0.04</v>
+        <v>-0.19</v>
       </c>
       <c r="M41">
-        <v>6.22</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>601061</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
+        <v>9.15</v>
+      </c>
+      <c r="E42">
         <v>9.199999999999999</v>
       </c>
-      <c r="E42">
-        <v>9.07</v>
-      </c>
       <c r="F42">
-        <v>9.279999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G42">
-        <v>9.01</v>
+        <v>9.09</v>
       </c>
       <c r="H42">
-        <v>344856</v>
+        <v>302230</v>
       </c>
       <c r="I42">
-        <v>319844855</v>
+        <v>281665500</v>
       </c>
       <c r="J42">
-        <v>2.93</v>
+        <v>2.27</v>
       </c>
       <c r="K42">
-        <v>-1.41</v>
+        <v>-0.43</v>
       </c>
       <c r="L42">
-        <v>-0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="M42">
-        <v>7.09</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>601061</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>9.050000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E43">
-        <v>9.140000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="F43">
         <v>9.279999999999999</v>
       </c>
       <c r="G43">
-        <v>9.039999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="H43">
-        <v>304496</v>
+        <v>344856</v>
       </c>
       <c r="I43">
-        <v>283182257</v>
+        <v>319844855</v>
       </c>
       <c r="J43">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="K43">
-        <v>0.77</v>
+        <v>-1.41</v>
       </c>
       <c r="L43">
-        <v>0.07000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="M43">
-        <v>6.26</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>601061</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E44">
         <v>9.140000000000001</v>
       </c>
-      <c r="E44">
-        <v>8.93</v>
-      </c>
       <c r="F44">
-        <v>9.140000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G44">
-        <v>8.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H44">
-        <v>390675</v>
+        <v>304496</v>
       </c>
       <c r="I44">
-        <v>356061895</v>
+        <v>283182257</v>
       </c>
       <c r="J44">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="K44">
-        <v>-2.3</v>
+        <v>0.77</v>
       </c>
       <c r="L44">
-        <v>-0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M44">
-        <v>8.039999999999999</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>601061</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>8.94</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E45">
-        <v>8.98</v>
+        <v>8.93</v>
       </c>
       <c r="F45">
-        <v>9.01</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G45">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="H45">
-        <v>240187</v>
+        <v>390675</v>
       </c>
       <c r="I45">
-        <v>218577287</v>
+        <v>356061895</v>
       </c>
       <c r="J45">
-        <v>1.12</v>
+        <v>2.63</v>
       </c>
       <c r="K45">
-        <v>0.5600000000000001</v>
+        <v>-2.3</v>
       </c>
       <c r="L45">
-        <v>0.05</v>
+        <v>-0.21</v>
       </c>
       <c r="M45">
-        <v>4.94</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>601061</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>8.960000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="E46">
-        <v>9.17</v>
+        <v>8.98</v>
       </c>
       <c r="F46">
-        <v>9.210000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="G46">
-        <v>8.92</v>
+        <v>8.91</v>
       </c>
       <c r="H46">
-        <v>450671</v>
+        <v>240187</v>
       </c>
       <c r="I46">
-        <v>418171271</v>
+        <v>218577287</v>
       </c>
       <c r="J46">
-        <v>3.23</v>
+        <v>1.12</v>
       </c>
       <c r="K46">
-        <v>2.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L46">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="M46">
-        <v>9.27</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>601061</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>9.119999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E47">
-        <v>9.039999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="F47">
-        <v>9.130000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G47">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="H47">
-        <v>330744</v>
+        <v>450671</v>
       </c>
       <c r="I47">
-        <v>302868317</v>
+        <v>418171271</v>
       </c>
       <c r="J47">
-        <v>1.96</v>
+        <v>3.23</v>
       </c>
       <c r="K47">
-        <v>-1.42</v>
+        <v>2.12</v>
       </c>
       <c r="L47">
-        <v>-0.13</v>
+        <v>0.19</v>
       </c>
       <c r="M47">
-        <v>6.8</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>601061</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>9.02</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E48">
-        <v>9.27</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F48">
-        <v>9.390000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G48">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H48">
-        <v>469488</v>
+        <v>330744</v>
       </c>
       <c r="I48">
-        <v>441105151</v>
+        <v>302868317</v>
       </c>
       <c r="J48">
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
       <c r="K48">
-        <v>2.54</v>
+        <v>-1.42</v>
       </c>
       <c r="L48">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="M48">
-        <v>9.66</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>601061</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>9.199999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="E49">
-        <v>9.26</v>
+        <v>9.27</v>
       </c>
       <c r="F49">
-        <v>9.369999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G49">
-        <v>9.199999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="H49">
-        <v>419229</v>
+        <v>469488</v>
       </c>
       <c r="I49">
-        <v>396077519</v>
+        <v>441105151</v>
       </c>
       <c r="J49">
-        <v>1.83</v>
+        <v>4.2</v>
       </c>
       <c r="K49">
-        <v>-0.11</v>
+        <v>2.54</v>
       </c>
       <c r="L49">
-        <v>-0.01</v>
+        <v>0.23</v>
       </c>
       <c r="M49">
-        <v>8.619999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>601061</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>9.220000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E50">
-        <v>8.960000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="F50">
-        <v>9.23</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G50">
-        <v>8.960000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H50">
-        <v>411382</v>
+        <v>419229</v>
       </c>
       <c r="I50">
-        <v>376908013</v>
+        <v>396077519</v>
       </c>
       <c r="J50">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="K50">
-        <v>-3.24</v>
+        <v>-0.11</v>
       </c>
       <c r="L50">
-        <v>-0.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M50">
-        <v>8.460000000000001</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>601061</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E51">
         <v>8.960000000000001</v>
       </c>
-      <c r="E51">
-        <v>8.800000000000001</v>
-      </c>
       <c r="F51">
-        <v>9.029999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="G51">
-        <v>8.77</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="H51">
-        <v>293307</v>
+        <v>411382</v>
       </c>
       <c r="I51">
-        <v>265144590</v>
+        <v>376908013</v>
       </c>
       <c r="J51">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K51">
-        <v>-1.79</v>
+        <v>-3.24</v>
       </c>
       <c r="L51">
-        <v>-0.16</v>
+        <v>-0.3</v>
       </c>
       <c r="M51">
-        <v>6.03</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>601061</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>8.73</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E52">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F52">
-        <v>8.73</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G52">
-        <v>8.35</v>
+        <v>8.77</v>
       </c>
       <c r="H52">
-        <v>328322</v>
+        <v>293307</v>
       </c>
       <c r="I52">
-        <v>283623894</v>
+        <v>265144590</v>
       </c>
       <c r="J52">
-        <v>4.32</v>
+        <v>2.9</v>
       </c>
       <c r="K52">
-        <v>-4.55</v>
+        <v>-1.79</v>
       </c>
       <c r="L52">
-        <v>-0.4</v>
+        <v>-0.16</v>
       </c>
       <c r="M52">
-        <v>6.75</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>601061</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>8.42</v>
+        <v>8.73</v>
       </c>
       <c r="E53">
-        <v>8.56</v>
+        <v>8.4</v>
       </c>
       <c r="F53">
-        <v>8.58</v>
+        <v>8.73</v>
       </c>
       <c r="G53">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="H53">
-        <v>186645</v>
+        <v>328322</v>
       </c>
       <c r="I53">
-        <v>161615370</v>
+        <v>283623894</v>
       </c>
       <c r="J53">
-        <v>1.9</v>
+        <v>4.32</v>
       </c>
       <c r="K53">
-        <v>1.9</v>
+        <v>-4.55</v>
       </c>
       <c r="L53">
-        <v>0.16</v>
+        <v>-0.4</v>
       </c>
       <c r="M53">
-        <v>3.84</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>601061</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>8.539999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="E54">
-        <v>8.51</v>
+        <v>8.56</v>
       </c>
       <c r="F54">
-        <v>8.550000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="G54">
-        <v>8.31</v>
+        <v>8.42</v>
       </c>
       <c r="H54">
-        <v>206607</v>
+        <v>186645</v>
       </c>
       <c r="I54">
-        <v>177484748</v>
+        <v>161615370</v>
       </c>
       <c r="J54">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="K54">
-        <v>-0.58</v>
+        <v>1.9</v>
       </c>
       <c r="L54">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
       <c r="M54">
-        <v>4.25</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>601061</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>8.49</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E55">
-        <v>8.529999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="F55">
-        <v>8.59</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G55">
-        <v>8.449999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="H55">
-        <v>161111</v>
+        <v>206607</v>
       </c>
       <c r="I55">
-        <v>139781211</v>
+        <v>177484748</v>
       </c>
       <c r="J55">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="K55">
-        <v>0.24</v>
+        <v>-0.58</v>
       </c>
       <c r="L55">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="M55">
-        <v>3.31</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>601061</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>8.52</v>
+        <v>8.49</v>
       </c>
       <c r="E56">
-        <v>8.630000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F56">
-        <v>8.699999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="G56">
-        <v>8.48</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H56">
-        <v>178972</v>
+        <v>161111</v>
       </c>
       <c r="I56">
-        <v>156991072</v>
+        <v>139781211</v>
       </c>
       <c r="J56">
-        <v>2.58</v>
+        <v>1.65</v>
       </c>
       <c r="K56">
-        <v>1.17</v>
+        <v>0.24</v>
       </c>
       <c r="L56">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="M56">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>601061</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>8.640000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="E57">
-        <v>8.710000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F57">
-        <v>8.74</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G57">
-        <v>8.619999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="H57">
-        <v>206406</v>
+        <v>178972</v>
       </c>
       <c r="I57">
-        <v>182484388</v>
+        <v>156991072</v>
       </c>
       <c r="J57">
-        <v>1.39</v>
+        <v>2.58</v>
       </c>
       <c r="K57">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="L57">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="M57">
-        <v>4.25</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>601061</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>8.779999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E58">
-        <v>8.81</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F58">
-        <v>9.01</v>
+        <v>8.74</v>
       </c>
       <c r="G58">
-        <v>8.76</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H58">
-        <v>380432</v>
+        <v>206406</v>
       </c>
       <c r="I58">
-        <v>344493785</v>
+        <v>182484388</v>
       </c>
       <c r="J58">
-        <v>2.87</v>
+        <v>1.39</v>
       </c>
       <c r="K58">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="L58">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M58">
-        <v>7.83</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>601061</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>8.699999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E59">
-        <v>9.16</v>
+        <v>8.81</v>
       </c>
       <c r="F59">
-        <v>9.41</v>
+        <v>9.01</v>
       </c>
       <c r="G59">
-        <v>8.57</v>
+        <v>8.76</v>
       </c>
       <c r="H59">
-        <v>639523</v>
+        <v>380432</v>
       </c>
       <c r="I59">
-        <v>589967745</v>
+        <v>344493785</v>
       </c>
       <c r="J59">
-        <v>9.529999999999999</v>
+        <v>2.87</v>
       </c>
       <c r="K59">
-        <v>3.97</v>
+        <v>1.15</v>
       </c>
       <c r="L59">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="M59">
-        <v>13.16</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>601061</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>9.050000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E60">
-        <v>8.91</v>
+        <v>9.16</v>
       </c>
       <c r="F60">
-        <v>9.050000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="G60">
-        <v>8.859999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="H60">
-        <v>398600</v>
+        <v>639523</v>
       </c>
       <c r="I60">
-        <v>361877239</v>
+        <v>589967745</v>
       </c>
       <c r="J60">
-        <v>2.07</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="K60">
-        <v>-2.73</v>
+        <v>3.97</v>
       </c>
       <c r="L60">
-        <v>-0.25</v>
+        <v>0.35</v>
       </c>
       <c r="M60">
-        <v>8.199999999999999</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>601061</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E61">
+        <v>8.91</v>
+      </c>
+      <c r="F61">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="G61">
         <v>8.859999999999999</v>
       </c>
-      <c r="E61">
-        <v>8.92</v>
-      </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="G61">
-        <v>8.77</v>
-      </c>
       <c r="H61">
-        <v>222491</v>
+        <v>398600</v>
       </c>
       <c r="I61">
-        <v>200568597</v>
+        <v>361877239</v>
       </c>
       <c r="J61">
-        <v>2.58</v>
+        <v>2.07</v>
       </c>
       <c r="K61">
-        <v>0.11</v>
+        <v>-2.73</v>
       </c>
       <c r="L61">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="M61">
-        <v>4.58</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>601061</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>8.93</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E62">
-        <v>8.94</v>
+        <v>8.92</v>
       </c>
       <c r="F62">
-        <v>8.99</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>8.83</v>
+        <v>8.77</v>
       </c>
       <c r="H62">
-        <v>189039</v>
+        <v>222491</v>
       </c>
       <c r="I62">
-        <v>171295857</v>
+        <v>200568597</v>
       </c>
       <c r="J62">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="K62">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="L62">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M62">
-        <v>3.89</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>601061</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
         <v>8.93</v>
       </c>
       <c r="E63">
-        <v>8.890000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="F63">
-        <v>8.960000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="G63">
-        <v>8.859999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="H63">
-        <v>139990</v>
+        <v>189039</v>
       </c>
       <c r="I63">
-        <v>126555240</v>
+        <v>171295857</v>
       </c>
       <c r="J63">
-        <v>1.12</v>
+        <v>1.79</v>
       </c>
       <c r="K63">
-        <v>-0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="L63">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M63">
-        <v>2.88</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>601061</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>8.880000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="E64">
-        <v>8.619999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F64">
-        <v>8.92</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G64">
-        <v>8.609999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H64">
-        <v>237218</v>
+        <v>139990</v>
       </c>
       <c r="I64">
-        <v>211680037</v>
+        <v>126555240</v>
       </c>
       <c r="J64">
-        <v>3.49</v>
+        <v>1.12</v>
       </c>
       <c r="K64">
-        <v>-3.04</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L64">
-        <v>-0.27</v>
+        <v>-0.05</v>
       </c>
       <c r="M64">
-        <v>4.88</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>601061</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>8.66</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E65">
-        <v>8.949999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F65">
-        <v>8.98</v>
+        <v>8.92</v>
       </c>
       <c r="G65">
-        <v>8.66</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="H65">
-        <v>360962</v>
+        <v>237218</v>
       </c>
       <c r="I65">
-        <v>326388233</v>
+        <v>211680037</v>
       </c>
       <c r="J65">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="K65">
-        <v>3.83</v>
+        <v>-3.04</v>
       </c>
       <c r="L65">
-        <v>0.33</v>
+        <v>-0.27</v>
       </c>
       <c r="M65">
-        <v>7.43</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>601061</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
+        <v>8.66</v>
+      </c>
+      <c r="E66">
         <v>8.949999999999999</v>
       </c>
-      <c r="E66">
-        <v>8.81</v>
-      </c>
       <c r="F66">
-        <v>8.949999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="G66">
-        <v>8.81</v>
+        <v>8.66</v>
       </c>
       <c r="H66">
-        <v>217999</v>
+        <v>360962</v>
       </c>
       <c r="I66">
-        <v>196383791</v>
+        <v>326388233</v>
       </c>
       <c r="J66">
-        <v>1.56</v>
+        <v>3.71</v>
       </c>
       <c r="K66">
-        <v>-1.56</v>
+        <v>3.83</v>
       </c>
       <c r="L66">
-        <v>-0.14</v>
+        <v>0.33</v>
       </c>
       <c r="M66">
-        <v>4.48</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>601061</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>8.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E67">
-        <v>8.720000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="F67">
-        <v>8.779999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G67">
-        <v>8.67</v>
+        <v>8.81</v>
       </c>
       <c r="H67">
-        <v>161370</v>
+        <v>217999</v>
       </c>
       <c r="I67">
-        <v>142992500</v>
+        <v>196383791</v>
       </c>
       <c r="J67">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="K67">
-        <v>-1.02</v>
+        <v>-1.56</v>
       </c>
       <c r="L67">
-        <v>-0.09</v>
+        <v>-0.14</v>
       </c>
       <c r="M67">
-        <v>3.32</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>601061</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>8.73</v>
+        <v>8.77</v>
       </c>
       <c r="E68">
-        <v>8.74</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F68">
         <v>8.779999999999999</v>
       </c>
       <c r="G68">
-        <v>8.66</v>
+        <v>8.67</v>
       </c>
       <c r="H68">
-        <v>136182</v>
+        <v>161370</v>
       </c>
       <c r="I68">
-        <v>120715457</v>
+        <v>142992500</v>
       </c>
       <c r="J68">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="K68">
-        <v>0.23</v>
+        <v>-1.02</v>
       </c>
       <c r="L68">
-        <v>0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>601061</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>8.710000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="E69">
         <v>8.74</v>
       </c>
       <c r="F69">
-        <v>8.77</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G69">
-        <v>8.69</v>
+        <v>8.66</v>
       </c>
       <c r="H69">
-        <v>102142</v>
+        <v>136182</v>
       </c>
       <c r="I69">
-        <v>90660857</v>
+        <v>120715457</v>
       </c>
       <c r="J69">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M69">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>601061</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="E70">
         <v>8.74</v>
       </c>
-      <c r="E70">
-        <v>8.630000000000001</v>
-      </c>
       <c r="F70">
-        <v>8.789999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="G70">
-        <v>8.619999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="H70">
-        <v>152617</v>
+        <v>102142</v>
       </c>
       <c r="I70">
-        <v>134786001</v>
+        <v>90660857</v>
       </c>
       <c r="J70">
-        <v>1.95</v>
+        <v>0.92</v>
       </c>
       <c r="K70">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>3.14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>601061</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>8.609999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="E71">
-        <v>8.6</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F71">
-        <v>8.640000000000001</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G71">
-        <v>8.529999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H71">
-        <v>101474</v>
+        <v>152617</v>
       </c>
       <c r="I71">
-        <v>88715656</v>
+        <v>134786001</v>
       </c>
       <c r="J71">
-        <v>1.27</v>
+        <v>1.95</v>
       </c>
       <c r="K71">
-        <v>-0.35</v>
+        <v>-1.26</v>
       </c>
       <c r="L71">
-        <v>-0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="M71">
-        <v>2.09</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>601061</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>8.529999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E72">
-        <v>8.59</v>
+        <v>8.6</v>
       </c>
       <c r="F72">
-        <v>8.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G72">
         <v>8.529999999999999</v>
       </c>
       <c r="H72">
-        <v>80550</v>
+        <v>101474</v>
       </c>
       <c r="I72">
-        <v>70462781</v>
+        <v>88715656</v>
       </c>
       <c r="J72">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="K72">
-        <v>-0.12</v>
+        <v>-0.35</v>
       </c>
       <c r="L72">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="M72">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>601061</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="E73">
+        <v>8.59</v>
+      </c>
+      <c r="F73">
         <v>8.66</v>
       </c>
-      <c r="E73">
-        <v>8.75</v>
-      </c>
-      <c r="F73">
-        <v>8.800000000000001</v>
-      </c>
       <c r="G73">
-        <v>8.630000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H73">
-        <v>198080</v>
+        <v>80550</v>
       </c>
       <c r="I73">
-        <v>175695273</v>
+        <v>70462781</v>
       </c>
       <c r="J73">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="K73">
-        <v>1.86</v>
+        <v>-0.12</v>
       </c>
       <c r="L73">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="M73">
-        <v>4.07</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>601061</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
+        <v>8.66</v>
+      </c>
+      <c r="E74">
         <v>8.75</v>
       </c>
-      <c r="E74">
-        <v>8.73</v>
-      </c>
       <c r="F74">
-        <v>8.81</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G74">
-        <v>8.68</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H74">
-        <v>143768</v>
+        <v>198080</v>
       </c>
       <c r="I74">
-        <v>127824889</v>
+        <v>175695273</v>
       </c>
       <c r="J74">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="K74">
-        <v>-0.23</v>
+        <v>1.86</v>
       </c>
       <c r="L74">
-        <v>-0.02</v>
+        <v>0.16</v>
       </c>
       <c r="M74">
-        <v>2.96</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>601061</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>8.710000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="E75">
-        <v>8.630000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="F75">
-        <v>8.779999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="G75">
-        <v>8.609999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="H75">
-        <v>136661</v>
+        <v>143768</v>
       </c>
       <c r="I75">
-        <v>121030393</v>
+        <v>127824889</v>
       </c>
       <c r="J75">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="K75">
-        <v>-1.15</v>
+        <v>-0.23</v>
       </c>
       <c r="L75">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="M75">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>601061</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>8.619999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E76">
-        <v>8.77</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F76">
         <v>8.779999999999999</v>
       </c>
       <c r="G76">
-        <v>8.529999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="H76">
-        <v>253429</v>
+        <v>136661</v>
       </c>
       <c r="I76">
-        <v>223984123</v>
+        <v>121030393</v>
       </c>
       <c r="J76">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="K76">
-        <v>1.62</v>
+        <v>-1.15</v>
       </c>
       <c r="L76">
-        <v>0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="M76">
-        <v>5.21</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>601061</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E77">
+        <v>8.77</v>
+      </c>
+      <c r="F77">
         <v>8.779999999999999</v>
       </c>
-      <c r="E77">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="F77">
-        <v>8.94</v>
-      </c>
       <c r="G77">
-        <v>8.779999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H77">
-        <v>262320</v>
+        <v>253429</v>
       </c>
       <c r="I77">
-        <v>236764023</v>
+        <v>223984123</v>
       </c>
       <c r="J77">
-        <v>1.82</v>
+        <v>2.9</v>
       </c>
       <c r="K77">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="L77">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="M77">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>601061</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>8.85</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E78">
-        <v>9.19</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F78">
-        <v>9.35</v>
+        <v>8.94</v>
       </c>
       <c r="G78">
-        <v>8.85</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H78">
-        <v>660378</v>
+        <v>262320</v>
       </c>
       <c r="I78">
-        <v>611174003</v>
+        <v>236764023</v>
       </c>
       <c r="J78">
-        <v>5.62</v>
+        <v>1.82</v>
       </c>
       <c r="K78">
-        <v>3.37</v>
+        <v>1.37</v>
       </c>
       <c r="L78">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="M78">
-        <v>13.58</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>601061</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>9.539999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="E79">
-        <v>9.199999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="F79">
-        <v>9.67</v>
+        <v>9.35</v>
       </c>
       <c r="G79">
-        <v>9.18</v>
+        <v>8.85</v>
       </c>
       <c r="H79">
-        <v>867429</v>
+        <v>660378</v>
       </c>
       <c r="I79">
-        <v>829311963</v>
+        <v>611174003</v>
       </c>
       <c r="J79">
-        <v>5.33</v>
+        <v>5.62</v>
       </c>
       <c r="K79">
-        <v>0.11</v>
+        <v>3.37</v>
       </c>
       <c r="L79">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="M79">
-        <v>17.84</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>601061</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>8.949999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E80">
-        <v>9.02</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F80">
-        <v>9.119999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="G80">
-        <v>8.92</v>
+        <v>9.18</v>
       </c>
       <c r="H80">
-        <v>451998</v>
+        <v>867429</v>
       </c>
       <c r="I80">
-        <v>412743113</v>
+        <v>829311963</v>
       </c>
       <c r="J80">
-        <v>2.17</v>
+        <v>5.33</v>
       </c>
       <c r="K80">
-        <v>-1.96</v>
+        <v>0.11</v>
       </c>
       <c r="L80">
-        <v>-0.18</v>
+        <v>0.01</v>
       </c>
       <c r="M80">
-        <v>9.300000000000001</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>601061</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>9.02</v>
       </c>
       <c r="F81">
         <v>9.119999999999999</v>
       </c>
       <c r="G81">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="H81">
-        <v>330825</v>
+        <v>451998</v>
       </c>
       <c r="I81">
-        <v>303097563</v>
+        <v>412743113</v>
       </c>
       <c r="J81">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K81">
-        <v>-0.22</v>
+        <v>-1.96</v>
       </c>
       <c r="L81">
-        <v>-0.02</v>
+        <v>-0.18</v>
       </c>
       <c r="M81">
-        <v>6.81</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>601061</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
+        <v>9.01</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G82">
         <v>8.949999999999999</v>
       </c>
-      <c r="E82">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F82">
-        <v>9.18</v>
-      </c>
-      <c r="G82">
-        <v>8.91</v>
-      </c>
       <c r="H82">
-        <v>426898</v>
+        <v>330825</v>
       </c>
       <c r="I82">
-        <v>394551465</v>
+        <v>303097563</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="K82">
-        <v>1.56</v>
+        <v>-0.22</v>
       </c>
       <c r="L82">
-        <v>0.14</v>
+        <v>-0.02</v>
       </c>
       <c r="M82">
-        <v>8.779999999999999</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>601061</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>9.130000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F83">
-        <v>9.140000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="G83">
-        <v>8.970000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="H83">
-        <v>230202</v>
+        <v>426898</v>
       </c>
       <c r="I83">
-        <v>207792422</v>
+        <v>394551465</v>
       </c>
       <c r="J83">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="K83">
-        <v>-1.53</v>
+        <v>1.56</v>
       </c>
       <c r="L83">
-        <v>-0.14</v>
+        <v>0.14</v>
       </c>
       <c r="M83">
-        <v>4.74</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>601061</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>8.93</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E84">
-        <v>8.890000000000001</v>
+        <v>9</v>
       </c>
       <c r="F84">
-        <v>8.98</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G84">
-        <v>8.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H84">
-        <v>189448</v>
+        <v>230202</v>
       </c>
       <c r="I84">
-        <v>168554729</v>
+        <v>207792422</v>
       </c>
       <c r="J84">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="K84">
-        <v>-1.22</v>
+        <v>-1.53</v>
       </c>
       <c r="L84">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="M84">
-        <v>3.9</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>601061</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>8.869999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="E85">
-        <v>8.92</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F85">
-        <v>8.92</v>
+        <v>8.98</v>
       </c>
       <c r="G85">
-        <v>8.859999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="H85">
-        <v>120655</v>
+        <v>189448</v>
       </c>
       <c r="I85">
-        <v>107374738</v>
+        <v>168554729</v>
       </c>
       <c r="J85">
-        <v>0.67</v>
+        <v>1.44</v>
       </c>
       <c r="K85">
-        <v>0.34</v>
+        <v>-1.22</v>
       </c>
       <c r="L85">
-        <v>0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="M85">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>601061</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E86">
         <v>8.92</v>
       </c>
-      <c r="E86">
-        <v>8.73</v>
-      </c>
       <c r="F86">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="G86">
-        <v>8.720000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H86">
-        <v>172320</v>
+        <v>120655</v>
       </c>
       <c r="I86">
-        <v>151827396</v>
+        <v>107374738</v>
       </c>
       <c r="J86">
-        <v>2.58</v>
+        <v>0.67</v>
       </c>
       <c r="K86">
-        <v>-2.13</v>
+        <v>0.34</v>
       </c>
       <c r="L86">
-        <v>-0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M86">
-        <v>3.54</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>601061</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D87">
-        <v>8.66</v>
+        <v>8.92</v>
       </c>
       <c r="E87">
-        <v>8.76</v>
+        <v>8.73</v>
       </c>
       <c r="F87">
-        <v>8.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G87">
-        <v>8.6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H87">
-        <v>118252</v>
+        <v>172320</v>
       </c>
       <c r="I87">
-        <v>102606242</v>
+        <v>151827396</v>
       </c>
       <c r="J87">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="K87">
-        <v>0.34</v>
+        <v>-2.13</v>
       </c>
       <c r="L87">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="M87">
-        <v>2.43</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>601061</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>8.74</v>
+        <v>8.66</v>
       </c>
       <c r="E88">
-        <v>8.789999999999999</v>
+        <v>8.76</v>
       </c>
       <c r="F88">
-        <v>8.82</v>
+        <v>8.77</v>
       </c>
       <c r="G88">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H88">
-        <v>107585</v>
+        <v>118252</v>
       </c>
       <c r="I88">
-        <v>94359012</v>
+        <v>102606242</v>
       </c>
       <c r="J88">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="K88">
         <v>0.34</v>
@@ -4444,1884 +4495,1884 @@
         <v>0.03</v>
       </c>
       <c r="M88">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>601061</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>8.76</v>
+        <v>8.74</v>
       </c>
       <c r="E89">
-        <v>8.68</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F89">
-        <v>8.789999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="G89">
-        <v>8.68</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H89">
-        <v>102874</v>
+        <v>107585</v>
       </c>
       <c r="I89">
-        <v>89682295</v>
+        <v>94359012</v>
       </c>
       <c r="J89">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="K89">
-        <v>-1.25</v>
+        <v>0.34</v>
       </c>
       <c r="L89">
-        <v>-0.11</v>
+        <v>0.03</v>
       </c>
       <c r="M89">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>601061</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>8.65</v>
+        <v>8.76</v>
       </c>
       <c r="E90">
-        <v>8.77</v>
+        <v>8.68</v>
       </c>
       <c r="F90">
         <v>8.789999999999999</v>
       </c>
       <c r="G90">
-        <v>8.609999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="H90">
-        <v>128506</v>
+        <v>102874</v>
       </c>
       <c r="I90">
-        <v>112126097</v>
+        <v>89682295</v>
       </c>
       <c r="J90">
-        <v>2.07</v>
+        <v>1.25</v>
       </c>
       <c r="K90">
-        <v>1.04</v>
+        <v>-1.25</v>
       </c>
       <c r="L90">
-        <v>0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="M90">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>601061</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>8.76</v>
+        <v>8.65</v>
       </c>
       <c r="E91">
-        <v>8.91</v>
+        <v>8.77</v>
       </c>
       <c r="F91">
-        <v>8.94</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G91">
-        <v>8.73</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="H91">
-        <v>252210</v>
+        <v>128506</v>
       </c>
       <c r="I91">
-        <v>223857300</v>
+        <v>112126097</v>
       </c>
       <c r="J91">
-        <v>2.39</v>
+        <v>2.07</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="L91">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="M91">
-        <v>5.19</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>601061</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>8.949999999999999</v>
+        <v>8.76</v>
       </c>
       <c r="E92">
-        <v>8.81</v>
+        <v>8.91</v>
       </c>
       <c r="F92">
-        <v>8.970000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="G92">
-        <v>8.789999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="H92">
-        <v>150079</v>
+        <v>252210</v>
       </c>
       <c r="I92">
-        <v>132800355</v>
+        <v>223857300</v>
       </c>
       <c r="J92">
-        <v>2.02</v>
+        <v>2.39</v>
       </c>
       <c r="K92">
-        <v>-1.12</v>
+        <v>1.6</v>
       </c>
       <c r="L92">
-        <v>-0.1</v>
+        <v>0.14</v>
       </c>
       <c r="M92">
-        <v>3.09</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>601061</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>8.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E93">
-        <v>8.94</v>
+        <v>8.81</v>
       </c>
       <c r="F93">
-        <v>8.94</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G93">
-        <v>8.77</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H93">
-        <v>206297</v>
+        <v>150079</v>
       </c>
       <c r="I93">
-        <v>182906806</v>
+        <v>132800355</v>
       </c>
       <c r="J93">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="K93">
-        <v>1.48</v>
+        <v>-1.12</v>
       </c>
       <c r="L93">
-        <v>0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="M93">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>601061</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D94">
-        <v>8.91</v>
+        <v>8.77</v>
       </c>
       <c r="E94">
-        <v>8.83</v>
+        <v>8.94</v>
       </c>
       <c r="F94">
-        <v>9.06</v>
+        <v>8.94</v>
       </c>
       <c r="G94">
-        <v>8.81</v>
+        <v>8.77</v>
       </c>
       <c r="H94">
-        <v>262078</v>
+        <v>206297</v>
       </c>
       <c r="I94">
-        <v>234891610</v>
+        <v>182906806</v>
       </c>
       <c r="J94">
-        <v>2.8</v>
+        <v>1.93</v>
       </c>
       <c r="K94">
-        <v>-1.23</v>
+        <v>1.48</v>
       </c>
       <c r="L94">
-        <v>-0.11</v>
+        <v>0.13</v>
       </c>
       <c r="M94">
-        <v>5.39</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>601061</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>8.82</v>
+        <v>8.91</v>
       </c>
       <c r="E95">
-        <v>8.66</v>
+        <v>8.83</v>
       </c>
       <c r="F95">
-        <v>8.869999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="G95">
-        <v>8.6</v>
+        <v>8.81</v>
       </c>
       <c r="H95">
-        <v>231378</v>
+        <v>262078</v>
       </c>
       <c r="I95">
-        <v>201225678</v>
+        <v>234891610</v>
       </c>
       <c r="J95">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="K95">
-        <v>-1.93</v>
+        <v>-1.23</v>
       </c>
       <c r="L95">
-        <v>-0.17</v>
+        <v>-0.11</v>
       </c>
       <c r="M95">
-        <v>4.76</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>601061</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
+        <v>8.82</v>
+      </c>
+      <c r="E96">
+        <v>8.66</v>
+      </c>
+      <c r="F96">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G96">
         <v>8.6</v>
       </c>
-      <c r="E96">
-        <v>8.1</v>
-      </c>
-      <c r="F96">
-        <v>8.6</v>
-      </c>
-      <c r="G96">
-        <v>8.01</v>
-      </c>
       <c r="H96">
-        <v>278082</v>
+        <v>231378</v>
       </c>
       <c r="I96">
-        <v>229179896</v>
+        <v>201225678</v>
       </c>
       <c r="J96">
-        <v>6.81</v>
+        <v>3.06</v>
       </c>
       <c r="K96">
-        <v>-6.47</v>
+        <v>-1.93</v>
       </c>
       <c r="L96">
-        <v>-0.5600000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="M96">
-        <v>5.72</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>601061</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
         <v>8.6</v>
       </c>
       <c r="E97">
-        <v>8.17</v>
+        <v>8.1</v>
       </c>
       <c r="F97">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="G97">
-        <v>8.140000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="H97">
-        <v>209422</v>
+        <v>278082</v>
       </c>
       <c r="I97">
-        <v>174964332</v>
+        <v>229179896</v>
       </c>
       <c r="J97">
-        <v>6.3</v>
+        <v>6.81</v>
       </c>
       <c r="K97">
-        <v>0.86</v>
+        <v>-6.47</v>
       </c>
       <c r="L97">
-        <v>0.07000000000000001</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M97">
-        <v>4.31</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>601061</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
+        <v>8.6</v>
+      </c>
+      <c r="E98">
         <v>8.17</v>
       </c>
-      <c r="E98">
-        <v>8.34</v>
-      </c>
       <c r="F98">
-        <v>8.380000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="G98">
-        <v>8.050000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H98">
-        <v>168857</v>
+        <v>209422</v>
       </c>
       <c r="I98">
-        <v>139849518</v>
+        <v>174964332</v>
       </c>
       <c r="J98">
-        <v>4.04</v>
+        <v>6.3</v>
       </c>
       <c r="K98">
-        <v>2.08</v>
+        <v>0.86</v>
       </c>
       <c r="L98">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M98">
-        <v>3.47</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>601061</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>8.300000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="E99">
-        <v>8.31</v>
+        <v>8.34</v>
       </c>
       <c r="F99">
-        <v>8.44</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G99">
-        <v>8.26</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H99">
-        <v>156311</v>
+        <v>168857</v>
       </c>
       <c r="I99">
-        <v>130297720</v>
+        <v>139849518</v>
       </c>
       <c r="J99">
-        <v>2.16</v>
+        <v>4.04</v>
       </c>
       <c r="K99">
-        <v>-0.36</v>
+        <v>2.08</v>
       </c>
       <c r="L99">
-        <v>-0.03</v>
+        <v>0.17</v>
       </c>
       <c r="M99">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>601061</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
         <v>8.300000000000001</v>
       </c>
       <c r="E100">
-        <v>8.25</v>
+        <v>8.31</v>
       </c>
       <c r="F100">
-        <v>8.32</v>
+        <v>8.44</v>
       </c>
       <c r="G100">
-        <v>8.23</v>
+        <v>8.26</v>
       </c>
       <c r="H100">
-        <v>95747</v>
+        <v>156311</v>
       </c>
       <c r="I100">
-        <v>79074790</v>
+        <v>130297720</v>
       </c>
       <c r="J100">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="K100">
-        <v>-0.72</v>
+        <v>-0.36</v>
       </c>
       <c r="L100">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="M100">
-        <v>1.97</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>601061</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E101">
         <v>8.25</v>
       </c>
-      <c r="E101">
-        <v>8.369999999999999</v>
-      </c>
       <c r="F101">
-        <v>8.449999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="G101">
-        <v>8.24</v>
+        <v>8.23</v>
       </c>
       <c r="H101">
-        <v>137209</v>
+        <v>95747</v>
       </c>
       <c r="I101">
-        <v>114728761</v>
+        <v>79074790</v>
       </c>
       <c r="J101">
-        <v>2.55</v>
+        <v>1.08</v>
       </c>
       <c r="K101">
-        <v>1.45</v>
+        <v>-0.72</v>
       </c>
       <c r="L101">
-        <v>0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="M101">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>601061</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>8.44</v>
+        <v>8.25</v>
       </c>
       <c r="E102">
-        <v>8.630000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F102">
-        <v>8.73</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G102">
-        <v>8.369999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="H102">
-        <v>256141</v>
+        <v>137209</v>
       </c>
       <c r="I102">
-        <v>219602145</v>
+        <v>114728761</v>
       </c>
       <c r="J102">
-        <v>4.3</v>
+        <v>2.55</v>
       </c>
       <c r="K102">
-        <v>3.11</v>
+        <v>1.45</v>
       </c>
       <c r="L102">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="M102">
-        <v>5.27</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>601061</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>8.57</v>
+        <v>8.44</v>
       </c>
       <c r="E103">
-        <v>8.460000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F103">
-        <v>8.58</v>
+        <v>8.73</v>
       </c>
       <c r="G103">
-        <v>8.460000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H103">
-        <v>155787</v>
+        <v>256141</v>
       </c>
       <c r="I103">
-        <v>132499117</v>
+        <v>219602145</v>
       </c>
       <c r="J103">
-        <v>1.39</v>
+        <v>4.3</v>
       </c>
       <c r="K103">
-        <v>-1.97</v>
+        <v>3.11</v>
       </c>
       <c r="L103">
-        <v>-0.17</v>
+        <v>0.26</v>
       </c>
       <c r="M103">
-        <v>3.2</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>601061</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>8.43</v>
+        <v>8.57</v>
       </c>
       <c r="E104">
         <v>8.460000000000001</v>
       </c>
       <c r="F104">
-        <v>8.49</v>
+        <v>8.58</v>
       </c>
       <c r="G104">
-        <v>8.34</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H104">
-        <v>135258</v>
+        <v>155787</v>
       </c>
       <c r="I104">
-        <v>113642000</v>
+        <v>132499117</v>
       </c>
       <c r="J104">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>-1.97</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="M104">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>601061</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>8.42</v>
+        <v>8.43</v>
       </c>
       <c r="E105">
-        <v>8.279999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F105">
-        <v>8.44</v>
+        <v>8.49</v>
       </c>
       <c r="G105">
-        <v>8.279999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="H105">
-        <v>110465</v>
+        <v>135258</v>
       </c>
       <c r="I105">
-        <v>92077737</v>
+        <v>113642000</v>
       </c>
       <c r="J105">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="K105">
-        <v>-2.13</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>601061</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>8.26</v>
+        <v>8.42</v>
       </c>
       <c r="E106">
         <v>8.279999999999999</v>
       </c>
       <c r="F106">
-        <v>8.33</v>
+        <v>8.44</v>
       </c>
       <c r="G106">
-        <v>8.23</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H106">
-        <v>78638</v>
+        <v>110465</v>
       </c>
       <c r="I106">
-        <v>65077803</v>
+        <v>92077737</v>
       </c>
       <c r="J106">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>-2.13</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="M106">
-        <v>1.62</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>601061</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D107">
+        <v>8.26</v>
+      </c>
+      <c r="E107">
         <v>8.279999999999999</v>
       </c>
-      <c r="E107">
-        <v>8.34</v>
-      </c>
       <c r="F107">
-        <v>8.35</v>
+        <v>8.33</v>
       </c>
       <c r="G107">
-        <v>8.25</v>
+        <v>8.23</v>
       </c>
       <c r="H107">
-        <v>80867</v>
+        <v>78638</v>
       </c>
       <c r="I107">
-        <v>67239048</v>
+        <v>65077803</v>
       </c>
       <c r="J107">
         <v>1.21</v>
       </c>
       <c r="K107">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>601061</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>8.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E108">
-        <v>8.26</v>
+        <v>8.34</v>
       </c>
       <c r="F108">
-        <v>8.33</v>
+        <v>8.35</v>
       </c>
       <c r="G108">
         <v>8.25</v>
       </c>
       <c r="H108">
-        <v>93777</v>
+        <v>80867</v>
       </c>
       <c r="I108">
-        <v>77630301</v>
+        <v>67239048</v>
       </c>
       <c r="J108">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="K108">
-        <v>-0.96</v>
+        <v>0.72</v>
       </c>
       <c r="L108">
-        <v>-0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M108">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>601061</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D109">
+        <v>8.31</v>
+      </c>
+      <c r="E109">
+        <v>8.26</v>
+      </c>
+      <c r="F109">
+        <v>8.33</v>
+      </c>
+      <c r="G109">
         <v>8.25</v>
       </c>
-      <c r="E109">
-        <v>8.18</v>
-      </c>
-      <c r="F109">
-        <v>8.25</v>
-      </c>
-      <c r="G109">
-        <v>8.119999999999999</v>
-      </c>
       <c r="H109">
-        <v>107332</v>
+        <v>93777</v>
       </c>
       <c r="I109">
-        <v>87765797</v>
+        <v>77630301</v>
       </c>
       <c r="J109">
-        <v>1.57</v>
+        <v>0.96</v>
       </c>
       <c r="K109">
-        <v>-0.97</v>
+        <v>-0.96</v>
       </c>
       <c r="L109">
         <v>-0.08</v>
       </c>
       <c r="M109">
-        <v>2.21</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>601061</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D110">
-        <v>8.15</v>
+        <v>8.25</v>
       </c>
       <c r="E110">
-        <v>8.1</v>
+        <v>8.18</v>
       </c>
       <c r="F110">
-        <v>8.18</v>
+        <v>8.25</v>
       </c>
       <c r="G110">
-        <v>8.09</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H110">
-        <v>79748</v>
+        <v>107332</v>
       </c>
       <c r="I110">
-        <v>64754464</v>
+        <v>87765797</v>
       </c>
       <c r="J110">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="K110">
-        <v>-0.98</v>
+        <v>-0.97</v>
       </c>
       <c r="L110">
         <v>-0.08</v>
       </c>
       <c r="M110">
-        <v>1.64</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>601061</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>8.16</v>
+        <v>8.15</v>
       </c>
       <c r="E111">
-        <v>8.19</v>
+        <v>8.1</v>
       </c>
       <c r="F111">
-        <v>8.300000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="G111">
-        <v>8.140000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="H111">
-        <v>129367</v>
+        <v>79748</v>
       </c>
       <c r="I111">
-        <v>106185007</v>
+        <v>64754464</v>
       </c>
       <c r="J111">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="K111">
-        <v>1.11</v>
+        <v>-0.98</v>
       </c>
       <c r="L111">
-        <v>0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="M111">
-        <v>2.66</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>601061</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D112">
+        <v>8.16</v>
+      </c>
+      <c r="E112">
+        <v>8.19</v>
+      </c>
+      <c r="F112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G112">
         <v>8.140000000000001</v>
       </c>
-      <c r="E112">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="F112">
-        <v>8.18</v>
-      </c>
-      <c r="G112">
-        <v>8.06</v>
-      </c>
       <c r="H112">
-        <v>89795</v>
+        <v>129367</v>
       </c>
       <c r="I112">
-        <v>72946042</v>
+        <v>106185007</v>
       </c>
       <c r="J112">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="K112">
-        <v>-0.85</v>
+        <v>1.11</v>
       </c>
       <c r="L112">
-        <v>-0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M112">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>601061</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>8.1</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E113">
-        <v>8.07</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F113">
-        <v>8.130000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="G113">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="H113">
-        <v>65189</v>
+        <v>89795</v>
       </c>
       <c r="I113">
-        <v>52705042</v>
+        <v>72946042</v>
       </c>
       <c r="J113">
-        <v>0.74</v>
+        <v>1.47</v>
       </c>
       <c r="K113">
-        <v>-0.62</v>
+        <v>-0.85</v>
       </c>
       <c r="L113">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M113">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>601061</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114">
+        <v>8.1</v>
+      </c>
+      <c r="E114">
         <v>8.07</v>
       </c>
-      <c r="E114">
-        <v>8.029999999999999</v>
-      </c>
       <c r="F114">
-        <v>8.09</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G114">
-        <v>8.02</v>
+        <v>8.07</v>
       </c>
       <c r="H114">
-        <v>56844</v>
+        <v>65189</v>
       </c>
       <c r="I114">
-        <v>45824352</v>
+        <v>52705042</v>
       </c>
       <c r="J114">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="K114">
-        <v>-0.5</v>
+        <v>-0.62</v>
       </c>
       <c r="L114">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="M114">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>601061</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115">
+        <v>8.07</v>
+      </c>
+      <c r="E115">
         <v>8.029999999999999</v>
       </c>
-      <c r="E115">
-        <v>7.96</v>
-      </c>
       <c r="F115">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="G115">
-        <v>7.93</v>
+        <v>8.02</v>
       </c>
       <c r="H115">
-        <v>69590</v>
+        <v>56844</v>
       </c>
       <c r="I115">
-        <v>55561930</v>
+        <v>45824352</v>
       </c>
       <c r="J115">
-        <v>1.62</v>
+        <v>0.87</v>
       </c>
       <c r="K115">
-        <v>-0.87</v>
+        <v>-0.5</v>
       </c>
       <c r="L115">
-        <v>-0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="M115">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>601061</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D116">
-        <v>7.95</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E116">
-        <v>8.09</v>
+        <v>7.96</v>
       </c>
       <c r="F116">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="G116">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="H116">
-        <v>81095</v>
+        <v>69590</v>
       </c>
       <c r="I116">
-        <v>65088927</v>
+        <v>55561930</v>
       </c>
       <c r="J116">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="K116">
-        <v>1.63</v>
+        <v>-0.87</v>
       </c>
       <c r="L116">
-        <v>0.13</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M116">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>601061</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>8.06</v>
+        <v>7.95</v>
       </c>
       <c r="E117">
-        <v>7.98</v>
+        <v>8.09</v>
       </c>
       <c r="F117">
-        <v>8.08</v>
+        <v>8.1</v>
       </c>
       <c r="G117">
-        <v>7.96</v>
+        <v>7.92</v>
       </c>
       <c r="H117">
-        <v>77039</v>
+        <v>81095</v>
       </c>
       <c r="I117">
-        <v>61698323</v>
+        <v>65088927</v>
       </c>
       <c r="J117">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="K117">
-        <v>-1.36</v>
+        <v>1.63</v>
       </c>
       <c r="L117">
-        <v>-0.11</v>
+        <v>0.13</v>
       </c>
       <c r="M117">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>601061</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>8.06</v>
       </c>
       <c r="E118">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="F118">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="G118">
-        <v>7.93</v>
+        <v>7.96</v>
       </c>
       <c r="H118">
-        <v>87443</v>
+        <v>77039</v>
       </c>
       <c r="I118">
-        <v>70083881</v>
+        <v>61698323</v>
       </c>
       <c r="J118">
-        <v>2.13</v>
+        <v>1.48</v>
       </c>
       <c r="K118">
-        <v>0.38</v>
+        <v>-1.36</v>
       </c>
       <c r="L118">
-        <v>0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>601061</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>7.95</v>
+        <v>8.01</v>
       </c>
       <c r="F119">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G119">
-        <v>7.94</v>
+        <v>7.93</v>
       </c>
       <c r="H119">
-        <v>75747</v>
+        <v>87443</v>
       </c>
       <c r="I119">
-        <v>60521745</v>
+        <v>70083881</v>
       </c>
       <c r="J119">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="K119">
-        <v>-0.75</v>
+        <v>0.38</v>
       </c>
       <c r="L119">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="M119">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>601061</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="E120">
-        <v>7.98</v>
+        <v>7.95</v>
       </c>
       <c r="F120">
-        <v>8.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G120">
         <v>7.94</v>
       </c>
       <c r="H120">
-        <v>62063</v>
+        <v>75747</v>
       </c>
       <c r="I120">
-        <v>49509439</v>
+        <v>60521745</v>
       </c>
       <c r="J120">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="K120">
-        <v>0.38</v>
+        <v>-0.75</v>
       </c>
       <c r="L120">
-        <v>0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="M120">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>601061</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>7.93</v>
+        <v>7.99</v>
       </c>
       <c r="E121">
-        <v>7.84</v>
+        <v>7.98</v>
       </c>
       <c r="F121">
-        <v>7.95</v>
+        <v>8.01</v>
       </c>
       <c r="G121">
-        <v>7.84</v>
+        <v>7.94</v>
       </c>
       <c r="H121">
-        <v>83025</v>
+        <v>62063</v>
       </c>
       <c r="I121">
-        <v>65370201</v>
+        <v>49509439</v>
       </c>
       <c r="J121">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="K121">
-        <v>-1.75</v>
+        <v>0.38</v>
       </c>
       <c r="L121">
-        <v>-0.14</v>
+        <v>0.03</v>
       </c>
       <c r="M121">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>601061</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>7.86</v>
+        <v>7.93</v>
       </c>
       <c r="E122">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="F122">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="G122">
-        <v>7.75</v>
+        <v>7.84</v>
       </c>
       <c r="H122">
-        <v>79086</v>
+        <v>83025</v>
       </c>
       <c r="I122">
-        <v>61718088</v>
+        <v>65370201</v>
       </c>
       <c r="J122">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="K122">
-        <v>-1.02</v>
+        <v>-1.75</v>
       </c>
       <c r="L122">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="M122">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>601061</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>7.78</v>
+        <v>7.86</v>
       </c>
       <c r="E123">
-        <v>7.8</v>
+        <v>7.76</v>
       </c>
       <c r="F123">
-        <v>7.83</v>
+        <v>7.9</v>
       </c>
       <c r="G123">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="H123">
-        <v>64083</v>
+        <v>79086</v>
       </c>
       <c r="I123">
-        <v>49860025</v>
+        <v>61718088</v>
       </c>
       <c r="J123">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="K123">
-        <v>0.52</v>
+        <v>-1.02</v>
       </c>
       <c r="L123">
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="M123">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>601061</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="E124">
+        <v>7.8</v>
+      </c>
+      <c r="F124">
         <v>7.83</v>
       </c>
-      <c r="F124">
-        <v>7.85</v>
-      </c>
       <c r="G124">
-        <v>7.78</v>
+        <v>7.73</v>
       </c>
       <c r="H124">
-        <v>66006</v>
+        <v>64083</v>
       </c>
       <c r="I124">
-        <v>51630589</v>
+        <v>49860025</v>
       </c>
       <c r="J124">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="K124">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="L124">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M124">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>601061</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>7.74</v>
+        <v>7.85</v>
       </c>
       <c r="E125">
-        <v>7.65</v>
+        <v>7.83</v>
       </c>
       <c r="F125">
-        <v>7.74</v>
+        <v>7.85</v>
       </c>
       <c r="G125">
-        <v>7.59</v>
+        <v>7.78</v>
       </c>
       <c r="H125">
-        <v>181420</v>
+        <v>66006</v>
       </c>
       <c r="I125">
-        <v>138721984</v>
+        <v>51630589</v>
       </c>
       <c r="J125">
-        <v>1.92</v>
+        <v>0.9</v>
       </c>
       <c r="K125">
-        <v>-2.3</v>
+        <v>0.38</v>
       </c>
       <c r="L125">
-        <v>-0.18</v>
+        <v>0.03</v>
       </c>
       <c r="M125">
-        <v>3.62</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>601061</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D126">
+        <v>7.74</v>
+      </c>
+      <c r="E126">
         <v>7.65</v>
       </c>
-      <c r="E126">
-        <v>7.67</v>
-      </c>
       <c r="F126">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="G126">
-        <v>7.56</v>
+        <v>7.59</v>
       </c>
       <c r="H126">
-        <v>134823</v>
+        <v>181420</v>
       </c>
       <c r="I126">
-        <v>102981942</v>
+        <v>138721984</v>
       </c>
       <c r="J126">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="K126">
-        <v>0.26</v>
+        <v>-2.3</v>
       </c>
       <c r="L126">
-        <v>0.02</v>
+        <v>-0.18</v>
       </c>
       <c r="M126">
-        <v>2.69</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>601061</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D127">
         <v>7.65</v>
       </c>
       <c r="E127">
-        <v>7.53</v>
+        <v>7.67</v>
       </c>
       <c r="F127">
-        <v>7.67</v>
+        <v>7.78</v>
       </c>
       <c r="G127">
-        <v>7.52</v>
+        <v>7.56</v>
       </c>
       <c r="H127">
-        <v>110411</v>
+        <v>134823</v>
       </c>
       <c r="I127">
-        <v>83566240</v>
+        <v>102981942</v>
       </c>
       <c r="J127">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="K127">
-        <v>-1.83</v>
+        <v>0.26</v>
       </c>
       <c r="L127">
-        <v>-0.14</v>
+        <v>0.02</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>601061</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>7.5</v>
+        <v>7.65</v>
       </c>
       <c r="E128">
-        <v>7.35</v>
+        <v>7.53</v>
       </c>
       <c r="F128">
-        <v>7.53</v>
+        <v>7.67</v>
       </c>
       <c r="G128">
-        <v>7.35</v>
+        <v>7.52</v>
       </c>
       <c r="H128">
-        <v>114106</v>
+        <v>110411</v>
       </c>
       <c r="I128">
-        <v>84338817</v>
+        <v>83566240</v>
       </c>
       <c r="J128">
-        <v>2.39</v>
+        <v>1.96</v>
       </c>
       <c r="K128">
-        <v>-2.39</v>
+        <v>-1.83</v>
       </c>
       <c r="L128">
-        <v>-0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="M128">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>601061</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="E129">
-        <v>7.28</v>
+        <v>7.35</v>
       </c>
       <c r="F129">
-        <v>7.42</v>
+        <v>7.53</v>
       </c>
       <c r="G129">
-        <v>7.28</v>
+        <v>7.35</v>
       </c>
       <c r="H129">
-        <v>89015</v>
+        <v>114106</v>
       </c>
       <c r="I129">
-        <v>65338925</v>
+        <v>84338817</v>
       </c>
       <c r="J129">
-        <v>1.9</v>
+        <v>2.39</v>
       </c>
       <c r="K129">
-        <v>-0.95</v>
+        <v>-2.39</v>
       </c>
       <c r="L129">
-        <v>-0.07000000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="M129">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>601061</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D130">
+        <v>7.36</v>
+      </c>
+      <c r="E130">
         <v>7.28</v>
       </c>
-      <c r="E130">
-        <v>7.27</v>
-      </c>
       <c r="F130">
-        <v>7.32</v>
+        <v>7.42</v>
       </c>
       <c r="G130">
-        <v>7.24</v>
+        <v>7.28</v>
       </c>
       <c r="H130">
-        <v>66321</v>
+        <v>89015</v>
       </c>
       <c r="I130">
-        <v>48273994</v>
+        <v>65338925</v>
       </c>
       <c r="J130">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="K130">
-        <v>-0.14</v>
+        <v>-0.95</v>
       </c>
       <c r="L130">
-        <v>-0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M130">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>601061</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>7.26</v>
+        <v>7.28</v>
       </c>
       <c r="E131">
-        <v>7.05</v>
+        <v>7.27</v>
       </c>
       <c r="F131">
-        <v>7.27</v>
+        <v>7.32</v>
       </c>
       <c r="G131">
-        <v>7.01</v>
+        <v>7.24</v>
       </c>
       <c r="H131">
-        <v>107892</v>
+        <v>66321</v>
       </c>
       <c r="I131">
-        <v>76614489</v>
+        <v>48273994</v>
       </c>
       <c r="J131">
-        <v>3.58</v>
+        <v>1.1</v>
       </c>
       <c r="K131">
-        <v>-3.03</v>
+        <v>-0.14</v>
       </c>
       <c r="L131">
-        <v>-0.22</v>
+        <v>-0.01</v>
       </c>
       <c r="M131">
-        <v>2.15</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>601061</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>7.06</v>
+        <v>7.26</v>
       </c>
       <c r="E132">
-        <v>7.3</v>
+        <v>7.05</v>
       </c>
       <c r="F132">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="G132">
-        <v>7.05</v>
+        <v>7.01</v>
       </c>
       <c r="H132">
-        <v>139777</v>
+        <v>107892</v>
       </c>
       <c r="I132">
-        <v>100610737</v>
+        <v>76614489</v>
       </c>
       <c r="J132">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="K132">
-        <v>3.55</v>
+        <v>-3.03</v>
       </c>
       <c r="L132">
-        <v>0.25</v>
+        <v>-0.22</v>
       </c>
       <c r="M132">
-        <v>2.79</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>601061</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>7.34</v>
+        <v>7.06</v>
       </c>
       <c r="E133">
-        <v>7.33</v>
+        <v>7.3</v>
       </c>
       <c r="F133">
-        <v>7.42</v>
+        <v>7.3</v>
       </c>
       <c r="G133">
-        <v>7.28</v>
+        <v>7.05</v>
       </c>
       <c r="H133">
-        <v>107250</v>
+        <v>139777</v>
       </c>
       <c r="I133">
-        <v>78895571</v>
+        <v>100610737</v>
       </c>
       <c r="J133">
-        <v>1.92</v>
+        <v>3.55</v>
       </c>
       <c r="K133">
-        <v>0.41</v>
+        <v>3.55</v>
       </c>
       <c r="L133">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="M133">
-        <v>2.14</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>601061</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D134">
-        <v>7.32</v>
+        <v>7.34</v>
       </c>
       <c r="E134">
-        <v>7.36</v>
+        <v>7.33</v>
       </c>
       <c r="F134">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="G134">
-        <v>7.23</v>
+        <v>7.28</v>
       </c>
       <c r="H134">
-        <v>73579</v>
+        <v>107250</v>
       </c>
       <c r="I134">
-        <v>53587794</v>
+        <v>78895571</v>
       </c>
       <c r="J134">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="K134">
         <v>0.41</v>
@@ -6330,106 +6381,106 @@
         <v>0.03</v>
       </c>
       <c r="M134">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>601061</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="E135">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="F135">
-        <v>7.45</v>
+        <v>7.36</v>
       </c>
       <c r="G135">
-        <v>7.29</v>
+        <v>7.23</v>
       </c>
       <c r="H135">
-        <v>106421</v>
+        <v>73579</v>
       </c>
       <c r="I135">
-        <v>78857778</v>
+        <v>53587794</v>
       </c>
       <c r="J135">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="K135">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="L135">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M135">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>601061</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D136">
-        <v>7.42</v>
+        <v>7.3</v>
       </c>
       <c r="E136">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="F136">
-        <v>7.53</v>
+        <v>7.45</v>
       </c>
       <c r="G136">
-        <v>7.41</v>
+        <v>7.29</v>
       </c>
       <c r="H136">
-        <v>92098</v>
+        <v>106421</v>
       </c>
       <c r="I136">
-        <v>68981122</v>
+        <v>78857778</v>
       </c>
       <c r="J136">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="K136">
-        <v>1.21</v>
+        <v>0.68</v>
       </c>
       <c r="L136">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="M136">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>601061</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D137">
-        <v>7.51</v>
+        <v>7.42</v>
       </c>
       <c r="E137">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="F137">
         <v>7.53</v>
@@ -6438,144 +6489,185 @@
         <v>7.41</v>
       </c>
       <c r="H137">
-        <v>74040</v>
+        <v>92098</v>
       </c>
       <c r="I137">
-        <v>55194974</v>
+        <v>68981122</v>
       </c>
       <c r="J137">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K137">
-        <v>-0.67</v>
+        <v>1.21</v>
       </c>
       <c r="L137">
-        <v>-0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M137">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B138">
+        <v>601061</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D138">
-        <v>7.46</v>
+        <v>7.51</v>
       </c>
       <c r="E138">
+        <v>7.45</v>
+      </c>
+      <c r="F138">
         <v>7.53</v>
       </c>
-      <c r="F138">
-        <v>7.58</v>
-      </c>
       <c r="G138">
-        <v>7.42</v>
+        <v>7.41</v>
       </c>
       <c r="H138">
-        <v>103346</v>
+        <v>74040</v>
       </c>
       <c r="I138">
-        <v>77595839</v>
+        <v>55194974</v>
       </c>
       <c r="J138">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="K138">
-        <v>1.07</v>
+        <v>-0.67</v>
       </c>
       <c r="L138">
-        <v>0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="M138">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>601061</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D139">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
       <c r="E139">
-        <v>7.37</v>
+        <v>7.53</v>
       </c>
       <c r="F139">
-        <v>7.53</v>
+        <v>7.58</v>
       </c>
       <c r="G139">
-        <v>7.37</v>
+        <v>7.42</v>
       </c>
       <c r="H139">
-        <v>94249</v>
+        <v>103346</v>
       </c>
       <c r="I139">
-        <v>70071141</v>
+        <v>77595839</v>
       </c>
       <c r="J139">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K139">
-        <v>-2.12</v>
+        <v>1.07</v>
       </c>
       <c r="L139">
-        <v>-0.16</v>
+        <v>0.08</v>
       </c>
       <c r="M139">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>601061</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D140">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E140">
-        <v>7.46</v>
+        <v>7.37</v>
       </c>
       <c r="F140">
-        <v>7.48</v>
+        <v>7.53</v>
       </c>
       <c r="G140">
         <v>7.37</v>
       </c>
       <c r="H140">
+        <v>94249</v>
+      </c>
+      <c r="I140">
+        <v>70071141</v>
+      </c>
+      <c r="J140">
+        <v>2.12</v>
+      </c>
+      <c r="K140">
+        <v>-2.12</v>
+      </c>
+      <c r="L140">
+        <v>-0.16</v>
+      </c>
+      <c r="M140">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>601061</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+      <c r="D141">
+        <v>7.4</v>
+      </c>
+      <c r="E141">
+        <v>7.46</v>
+      </c>
+      <c r="F141">
+        <v>7.48</v>
+      </c>
+      <c r="G141">
+        <v>7.37</v>
+      </c>
+      <c r="H141">
         <v>74593</v>
       </c>
-      <c r="I140">
+      <c r="I141">
         <v>55596635</v>
       </c>
-      <c r="J140">
+      <c r="J141">
         <v>1.49</v>
       </c>
-      <c r="K140">
+      <c r="K141">
         <v>1.22</v>
       </c>
-      <c r="L140">
+      <c r="L141">
         <v>0.09</v>
       </c>
-      <c r="M140">
+      <c r="M141">
         <v>1.49</v>
       </c>
     </row>
